--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039223BD-331C-794B-9B43-CE840B62DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DC77E-E08D-0647-A36F-C1E41749846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
+    <workbookView xWindow="7900" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/is-subsequence/solutions/</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-last-word/</t>
+  </si>
+  <si>
+    <t>Hashmap &amp; Hashset</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/concatenation-of-array/description/</t>
   </si>
 </sst>
 </file>
@@ -447,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,10 +496,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{2B8E9F3C-D672-404F-8E29-B3B61436DB9A}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
+    <hyperlink ref="A19" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DC77E-E08D-0647-A36F-C1E41749846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66D2BE-A9CC-5742-9A49-E744DA9D1A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
+    <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -50,9 +50,6 @@
     <t>https://leetcode.com/problems/is-subsequence/solutions/</t>
   </si>
   <si>
-    <t>Strings</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/length-of-last-word/</t>
   </si>
   <si>
@@ -66,6 +63,33 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/concatenation-of-array/description/</t>
+  </si>
+  <si>
+    <t>String Manipulation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-senior-citizens/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/score-of-a-string/</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>keep count of 1s and increase the window when we find subs ones …..reset window when no subs ones</t>
   </si>
 </sst>
 </file>
@@ -465,65 +489,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="110.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -533,6 +594,11 @@
     <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A14" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
     <hyperlink ref="A19" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A15" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66D2BE-A9CC-5742-9A49-E744DA9D1A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7602A-2F09-284F-9E5A-C27C386FEA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -90,13 +90,25 @@
   </si>
   <si>
     <t>keep count of 1s and increase the window when we find subs ones …..reset window when no subs ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-matching-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>use indexOf</t>
+  </si>
+  <si>
+    <t>use indexOf and horizontal scanning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +139,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,11 +168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,45 +565,64 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -592,13 +631,15 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{2B8E9F3C-D672-404F-8E29-B3B61436DB9A}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A19" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
-    <hyperlink ref="A15" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
-    <hyperlink ref="A16" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A18" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
+    <hyperlink ref="A19" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A23" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A26" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7602A-2F09-284F-9E5A-C27C386FEA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C3E1E-AA58-D348-84C1-1DECDFB3E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>use indexOf and horizontal scanning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-element/description/</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
   </si>
 </sst>
 </file>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,6 +553,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
@@ -624,6 +638,16 @@
       </c>
       <c r="B26" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +664,8 @@
     <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A14" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
+    <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
+    <hyperlink ref="A30" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C3E1E-AA58-D348-84C1-1DECDFB3E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6DE373-0582-584C-9D80-53EBC799C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-email-addresses/</t>
+  </si>
+  <si>
+    <t>Hashset and strsplit @</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +601,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -666,6 +677,7 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
     <hyperlink ref="A30" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6DE373-0582-584C-9D80-53EBC799C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2A641-BFC2-1541-8528-EB8158F504D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Hashset and strsplit @</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/isomorphic-strings/</t>
+  </si>
+  <si>
+    <t>check forward and reverse mapping</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,6 +632,14 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,6 +692,7 @@
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
     <hyperlink ref="A30" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A15" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2A641-BFC2-1541-8528-EB8158F504D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFB86AC-AE7A-674D-89A2-1D8641C597CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>check forward and reverse mapping</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>check occurrences of element ushing HMAP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/can-place-flowers/</t>
+  </si>
+  <si>
+    <t>lots of edge cases</t>
   </si>
 </sst>
 </file>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,35 +655,51 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -681,18 +709,20 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A17" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A22" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A23" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A18" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A19" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A26" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A27" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A14" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A30" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A31" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A15" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A20" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFB86AC-AE7A-674D-89A2-1D8641C597CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25973F6-58E9-614F-BE51-2EA42BF78C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>lots of edge cases</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-difference-between-even-and-odd-frequency-i/</t>
+  </si>
+  <si>
+    <t>hashmap and greatest even - min odd</t>
+  </si>
+  <si>
+    <t>Monotonic Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-i/</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,44 +675,62 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -709,20 +739,21 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A17" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A24" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A18" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A19" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A27" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A28" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A14" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A31" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A32" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A15" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A20" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A21" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A25" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A35" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25973F6-58E9-614F-BE51-2EA42BF78C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8979F2B-95B4-3B44-BB28-D0E3C806FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/next-greater-element-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-strictly-increasing-or-strictly-decreasing-subarray/</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,6 +595,11 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -754,6 +762,7 @@
     <hyperlink ref="A21" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
     <hyperlink ref="A25" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
     <hyperlink ref="A35" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8979F2B-95B4-3B44-BB28-D0E3C806FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B18F8-7059-C445-89C3-0DE3385E4C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-strictly-increasing-or-strictly-decreasing-subarray/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-ascending-subarray-sum/</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,141 +606,146 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -745,23 +753,23 @@
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{2B8E9F3C-D672-404F-8E29-B3B61436DB9A}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A24" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
-    <hyperlink ref="A18" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
-    <hyperlink ref="A19" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A28" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
-    <hyperlink ref="A14" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
+    <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
+    <hyperlink ref="A25" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
+    <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
+    <hyperlink ref="A29" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A32" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
-    <hyperlink ref="A20" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
-    <hyperlink ref="A21" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A25" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A35" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A33" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A36" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B18F8-7059-C445-89C3-0DE3385E4C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7579BAB-28F9-8C4E-A65C-9563EC9911A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-ascending-subarray-sum/</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index/</t>
   </si>
 </sst>
 </file>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,6 +753,16 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +787,7 @@
     <hyperlink ref="A26" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
     <hyperlink ref="A36" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
+    <hyperlink ref="A39" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7579BAB-28F9-8C4E-A65C-9563EC9911A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741A2C1-A005-5647-A04B-C88FDB07548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-pivot-index/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-distinct-string-in-an-array/</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,63 +708,69 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -771,23 +780,23 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A25" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A26" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A29" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A30" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A33" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A34" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A36" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A37" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A39" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A40" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741A2C1-A005-5647-A04B-C88FDB07548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AAA58-A229-124A-8776-F4FD8CFD04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/kth-distinct-string-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-balloons/</t>
+  </si>
+  <si>
+    <t>finding min and division</t>
+  </si>
+  <si>
+    <t>Negative Marking Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/</t>
   </si>
 </sst>
 </file>
@@ -569,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,64 +726,82 @@
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -780,23 +810,24 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A26" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A27" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A30" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A31" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A34" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A35" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A27" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A37" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A28" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A38" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A40" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A41" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A44" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AAA58-A229-124A-8776-F4FD8CFD04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E7925-8879-7840-A65F-E17F1E23EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-pattern/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similar to isomorphic strings </t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,73 +740,81 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -810,24 +824,24 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A27" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A28" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A31" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A32" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A35" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A36" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A28" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A38" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A39" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A41" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A44" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A42" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A45" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E7925-8879-7840-A65F-E17F1E23EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDB705-E309-BD4B-A9E0-423852CA94CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t xml:space="preserve">similar to isomorphic strings </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-missing-and-repeated-values/</t>
+  </si>
+  <si>
+    <t>use along with Hashset</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/height-checker/</t>
+  </si>
+  <si>
+    <t>simple sort</t>
   </si>
 </sst>
 </file>
@@ -587,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,6 +777,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
@@ -774,48 +794,56 @@
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -842,6 +870,8 @@
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
     <hyperlink ref="A42" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
     <hyperlink ref="A45" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A30" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A46" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDB705-E309-BD4B-A9E0-423852CA94CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A02FE-19EE-DF46-8885-D0A7323B3D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>simple sort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-lucky-integer-in-an-array/</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,89 +763,95 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -852,26 +861,26 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A28" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A29" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A32" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A33" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A36" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A29" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A39" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A30" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A40" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A42" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A45" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A30" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A46" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A43" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A46" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A47" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A02FE-19EE-DF46-8885-D0A7323B3D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830896C8-2CC8-1040-BFE5-A7622C67150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-lucky-integer-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/special-array-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/monotonic-array/</t>
   </si>
 </sst>
 </file>
@@ -602,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,63 +801,75 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -865,22 +883,24 @@
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A33" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A35" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A37" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A39" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
     <hyperlink ref="A30" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A40" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A42" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A43" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A46" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A45" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A48" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
     <hyperlink ref="A31" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A47" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A49" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A33" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830896C8-2CC8-1040-BFE5-A7622C67150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE618DA7-2496-FB43-B31F-850D5C55B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
+    <workbookView xWindow="1400" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/monotonic-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-the-number-of-consistent-strings/</t>
+  </si>
+  <si>
+    <t>hashset of allowed characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/divide-array-into-equal-pairs/</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,101 +784,115 @@
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
+      <c r="A30" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -879,28 +902,28 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A29" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A31" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A35" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A37" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A39" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A41" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A30" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A42" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A32" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A44" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A45" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A48" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A31" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A49" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A32" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A33" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A47" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A50" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A33" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A51" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A34" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A35" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE618DA7-2496-FB43-B31F-850D5C55B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E6E32-F969-D94D-BC68-E9A8BBF31105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
+    <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -206,10 +206,16 @@
     <t>https://leetcode.com/problems/count-the-number-of-consistent-strings/</t>
   </si>
   <si>
-    <t>hashset of allowed characters</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/divide-array-into-equal-pairs/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-words-that-can-be-formed-by-characters</t>
+  </si>
+  <si>
+    <t>hashset of allowed characters.   (alternative easy : frequency 26 array)</t>
+  </si>
+  <si>
+    <t>hashmap allowed    (alternative easy : frequency 26 array)</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,111 +794,119 @@
         <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -902,28 +916,28 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A31" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A32" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A37" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A38" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A41" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A42" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A32" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A44" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A33" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A45" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A47" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A50" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A33" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A51" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A34" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A35" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A48" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A51" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A34" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A52" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A35" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A36" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E6E32-F969-D94D-BC68-E9A8BBF31105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FD726-50B6-9149-9720-7AFD4BE732DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>hashmap allowed    (alternative easy : frequency 26 array)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/</t>
+  </si>
+  <si>
+    <t>hashmap  (alternative easy : frequency 26 array)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,101 +818,109 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -916,28 +930,29 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A32" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A33" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A38" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A39" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A42" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A43" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A33" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A45" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A34" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A46" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A48" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A51" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A34" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A52" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A35" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A36" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A49" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A52" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A35" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A53" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A36" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A37" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A31" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FD726-50B6-9149-9720-7AFD4BE732DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4600D625-5F5F-3C42-A97B-E7BB17E10F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>hashmap  (alternative easy : frequency 26 array)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-3-same-digit-number-in-string/</t>
+  </si>
+  <si>
+    <t>kind of 2 ptrs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/destination-city/</t>
   </si>
 </sst>
 </file>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,203 +733,221 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -929,30 +956,30 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{2B8E9F3C-D672-404F-8E29-B3B61436DB9A}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A33" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
-    <hyperlink ref="A19" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
-    <hyperlink ref="A20" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
+    <hyperlink ref="A19" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
+    <hyperlink ref="A35" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A20" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
+    <hyperlink ref="A21" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A39" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A42" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A43" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A46" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
-    <hyperlink ref="A22" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A34" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A46" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A22" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
+    <hyperlink ref="A23" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
+    <hyperlink ref="A36" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A49" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A49" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A52" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A35" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A53" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A36" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A37" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
-    <hyperlink ref="A31" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
+    <hyperlink ref="A52" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A55" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A37" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A56" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A38" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A39" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A32" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4600D625-5F5F-3C42-A97B-E7BB17E10F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDD556-7EC9-7F4C-AD6D-CBC0F25CF839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/destination-city/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-pairs</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,105 +852,111 @@
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -957,28 +966,28 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A19" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A35" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A36" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A20" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A21" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A42" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A43" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A46" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A47" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A22" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A23" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A36" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A49" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A37" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A50" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A52" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A55" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A37" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A56" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A38" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A39" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A53" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A56" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A38" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A57" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A39" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A40" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
     <hyperlink ref="A32" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDD556-7EC9-7F4C-AD6D-CBC0F25CF839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F4B6E6-5F16-E543-BB87-C21E88F4E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-good-pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/circular-sentence/</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,219 +747,225 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -965,30 +974,31 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{2B8E9F3C-D672-404F-8E29-B3B61436DB9A}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
-    <hyperlink ref="A19" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A36" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
-    <hyperlink ref="A20" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
-    <hyperlink ref="A21" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
+    <hyperlink ref="A20" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
+    <hyperlink ref="A37" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A21" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
+    <hyperlink ref="A22" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A43" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A44" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A47" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A48" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
-    <hyperlink ref="A22" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
-    <hyperlink ref="A23" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A37" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A50" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A23" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
+    <hyperlink ref="A24" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
+    <hyperlink ref="A38" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A51" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A53" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A56" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A38" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A57" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A39" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A40" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
-    <hyperlink ref="A32" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
+    <hyperlink ref="A54" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A57" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A39" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A58" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A40" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A41" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A33" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
+    <hyperlink ref="A18" r:id="rId28" xr:uid="{B012920A-050F-7545-9ED2-5735FA5B5C35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F4B6E6-5F16-E543-BB87-C21E88F4E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D86423-BCB0-D34F-BFBE-93102C960B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/circular-sentence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-score-after-splitting-a-string/</t>
   </si>
 </sst>
 </file>
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +908,9 @@
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -999,6 +1004,7 @@
     <hyperlink ref="A41" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
     <hyperlink ref="A33" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
     <hyperlink ref="A18" r:id="rId28" xr:uid="{B012920A-050F-7545-9ED2-5735FA5B5C35}"/>
+    <hyperlink ref="A42" r:id="rId29" xr:uid="{8653ECAF-C36F-4B4E-A2CB-DE6957B84A6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D86423-BCB0-D34F-BFBE-93102C960B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA1B14-90F7-6B45-94B2-8E62209143B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-score-after-splitting-a-string/</t>
+  </si>
+  <si>
+    <t>Array Rotation and breaks technique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-array-is-sorted-and-rotated</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,6 +978,16 @@
       </c>
       <c r="B58" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1005,6 +1021,7 @@
     <hyperlink ref="A33" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
     <hyperlink ref="A18" r:id="rId28" xr:uid="{B012920A-050F-7545-9ED2-5735FA5B5C35}"/>
     <hyperlink ref="A42" r:id="rId29" xr:uid="{8653ECAF-C36F-4B4E-A2CB-DE6957B84A6C}"/>
+    <hyperlink ref="A61" r:id="rId30" xr:uid="{2D1CF136-FE33-4B4B-B89E-F31FB188A547}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA1B14-90F7-6B45-94B2-8E62209143B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3B160-BEC3-C848-A22C-87402F1E3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/check-if-array-is-sorted-and-rotated</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle-ii/</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,6 +943,11 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,6 +1030,7 @@
     <hyperlink ref="A18" r:id="rId28" xr:uid="{B012920A-050F-7545-9ED2-5735FA5B5C35}"/>
     <hyperlink ref="A42" r:id="rId29" xr:uid="{8653ECAF-C36F-4B4E-A2CB-DE6957B84A6C}"/>
     <hyperlink ref="A61" r:id="rId30" xr:uid="{2D1CF136-FE33-4B4B-B89E-F31FB188A547}"/>
+    <hyperlink ref="A49" r:id="rId31" xr:uid="{AA34A77C-C84D-DF49-9768-F7877D98ED6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-Neetcode.xlsx
+++ b/LeetCode-Neetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbhagwat/Downloads/Leetcode-Handpicked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3B160-BEC3-C848-A22C-87402F1E3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29BA1A-6CAD-5D4B-8B54-C8453A7BCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1040" windowWidth="28040" windowHeight="17440" xr2:uid="{BD01C3DC-DC56-CE43-9723-FA137E1E129F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Leetcode Problems</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/pascals-triangle-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297CB5-68C8-6E42-888B-4EB2556D0AF9}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,122 +882,128 @@
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1004,33 +1013,34 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F5FD0255-5A65-6740-A239-5A889FBC806E}"/>
     <hyperlink ref="A11" r:id="rId3" xr:uid="{00A9F9BF-33C1-0E41-9C76-CB7AF24BC48D}"/>
     <hyperlink ref="A20" r:id="rId4" xr:uid="{FCDB55F0-13E0-5E42-9598-01FFB8BD2220}"/>
-    <hyperlink ref="A37" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
+    <hyperlink ref="A38" r:id="rId5" xr:uid="{97D07EA3-D1DA-8248-9CFB-806E6CCD565B}"/>
     <hyperlink ref="A21" r:id="rId6" xr:uid="{E7D24FC1-A02B-D14D-B99A-26A2CEEB2039}"/>
     <hyperlink ref="A22" r:id="rId7" xr:uid="{E66837C5-113B-9B49-A4F7-E745540AF1C4}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{8A796CC3-5B50-A348-B439-FB6301CB5594}"/>
-    <hyperlink ref="A44" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
+    <hyperlink ref="A45" r:id="rId9" xr:uid="{F3C2E31B-4ECA-C84F-B1EB-486BA7D92942}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{101A27B8-5BA5-294B-AC30-5AA92009B1F5}"/>
     <hyperlink ref="A15" r:id="rId11" xr:uid="{A439C1A3-DE53-2940-8C5F-2ACA6DBE1EC3}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{917CA1A5-3E52-8540-9A93-273313630F72}"/>
     <hyperlink ref="A7" r:id="rId13" xr:uid="{26DF0457-08F9-6544-9238-08BB6B90435C}"/>
-    <hyperlink ref="A48" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
+    <hyperlink ref="A49" r:id="rId14" xr:uid="{FBD7CD0D-DFB1-EC49-8653-AC9A950E09C5}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{CE2B0BE7-5981-D149-8EDA-A6281906E1A8}"/>
     <hyperlink ref="A23" r:id="rId16" xr:uid="{E492DAD5-3FA8-134D-8FC7-E257A34B1956}"/>
     <hyperlink ref="A24" r:id="rId17" xr:uid="{1BA41E6C-00F9-9F49-9A7E-93A3FED222CD}"/>
-    <hyperlink ref="A38" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
-    <hyperlink ref="A51" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
+    <hyperlink ref="A39" r:id="rId18" xr:uid="{52A3B05A-316B-894D-8F8D-47A256F60ACB}"/>
+    <hyperlink ref="A52" r:id="rId19" xr:uid="{D7379169-7E0B-0E48-9D3C-40AB3C3D1ECB}"/>
     <hyperlink ref="A8" r:id="rId20" xr:uid="{1A52F363-7810-0942-A135-E421C1426FA1}"/>
-    <hyperlink ref="A54" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
-    <hyperlink ref="A57" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
-    <hyperlink ref="A39" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
-    <hyperlink ref="A58" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
-    <hyperlink ref="A40" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
-    <hyperlink ref="A41" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
+    <hyperlink ref="A55" r:id="rId21" xr:uid="{C6B2145C-311C-064F-98CA-28283C20129B}"/>
+    <hyperlink ref="A58" r:id="rId22" xr:uid="{3459E0E6-3555-5E4B-AA63-3E597A8836B7}"/>
+    <hyperlink ref="A40" r:id="rId23" xr:uid="{9FB93248-E620-1047-996C-102C7B738B92}"/>
+    <hyperlink ref="A59" r:id="rId24" xr:uid="{985DFAB9-312E-0E45-9D78-4061AD0EC3DC}"/>
+    <hyperlink ref="A41" r:id="rId25" xr:uid="{8803CE7C-21C7-F946-A90A-7B42CB6D2BD1}"/>
+    <hyperlink ref="A42" r:id="rId26" xr:uid="{AC168918-DA8F-764B-9632-2C95F983ADF0}"/>
     <hyperlink ref="A33" r:id="rId27" xr:uid="{A5BDE811-0177-874C-AEA2-D822203512CF}"/>
     <hyperlink ref="A18" r:id="rId28" xr:uid="{B012920A-050F-7545-9ED2-5735FA5B5C35}"/>
-    <hyperlink ref="A42" r:id="rId29" xr:uid="{8653ECAF-C36F-4B4E-A2CB-DE6957B84A6C}"/>
-    <hyperlink ref="A61" r:id="rId30" xr:uid="{2D1CF136-FE33-4B4B-B89E-F31FB188A547}"/>
-    <hyperlink ref="A49" r:id="rId31" xr:uid="{AA34A77C-C84D-DF49-9768-F7877D98ED6B}"/>
+    <hyperlink ref="A43" r:id="rId29" xr:uid="{8653ECAF-C36F-4B4E-A2CB-DE6957B84A6C}"/>
+    <hyperlink ref="A62" r:id="rId30" xr:uid="{2D1CF136-FE33-4B4B-B89E-F31FB188A547}"/>
+    <hyperlink ref="A50" r:id="rId31" xr:uid="{AA34A77C-C84D-DF49-9768-F7877D98ED6B}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{EA32A2C5-3B19-914B-8514-6F845C145C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
